--- a/Reviewed files/Xpath_Reviewed.xlsx
+++ b/Reviewed files/Xpath_Reviewed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +496,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Storefront_tests</t>
+          <t>Testing again</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -504,11 +504,7 @@
           <t>xpath</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>//*(id='Atul')</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -517,12 +513,12 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>xpath Looks fine</t>
+          <t>No xpath found</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Please try to avoid xpath with //*.</t>
+          <t>No suggestions</t>
         </is>
       </c>
     </row>
@@ -532,7 +528,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sfcc_Bm_UserName_Textbox</t>
+          <t>Storefront_tests</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -542,14 +538,10 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>//input[@id="idToken1"]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>idToken1</t>
-        </is>
-      </c>
+          <t>//*(id='Atul')</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -562,7 +554,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>No suggestion</t>
+          <t>Please try to avoid xpath with //*.</t>
         </is>
       </c>
     </row>
@@ -572,7 +564,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sfcc_Bm_First_Login_Button</t>
+          <t>Sfcc_Bm_UserName_Textbox</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -582,10 +574,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>//input[@id='loginButton_0"]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>//input[@id="idToken1"]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>idToken1</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -593,12 +589,12 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>xpath is broken</t>
+          <t>xpath Looks fine</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Some parenthesis/brackets/quotes missing</t>
+          <t>No suggestion</t>
         </is>
       </c>
     </row>
@@ -608,7 +604,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>testing xpath</t>
+          <t>Sfcc_Bm_First_Login_Button</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -618,7 +614,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>//input//div//div/div22/aaab/cc/div/h4/span/a</t>
+          <t>//input[@id='loginButton_0"]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -629,12 +625,12 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>xpath Looks fine</t>
+          <t>xpath is broken</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>No suggestion</t>
+          <t>Some parenthesis/brackets/quotes missing</t>
         </is>
       </c>
     </row>
@@ -644,7 +640,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sfcc_Bm_Password_Textbox</t>
+          <t>testing xpath</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -654,7 +650,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>//input[@id="idToken2"]</t>
+          <t>//input//div//div/div22/aaab/cc/div/h4/span/a</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -680,7 +676,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sfcc_Bm_Second_Login_Button</t>
+          <t>Sfcc_Bm_Password_Textbox</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -690,7 +686,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>//input[@id="loginButton_0"]</t>
+          <t>//input[@id="idToken2"]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -716,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sfcc_Bm_Site_Selection_Button</t>
+          <t>Sfcc_Bm_Second_Login_Button</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -726,7 +722,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>//select[@id="SelectedSiteID"]</t>
+          <t>//input[@id="loginButton_0"]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -752,7 +748,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sfcc_Bm_Site_Name</t>
+          <t>Sfcc_Bm_Site_Selection_Button</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -762,7 +758,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>//span[@title='Currys PC World UK']</t>
+          <t>//select[@id="SelectedSiteID"]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -788,7 +784,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sfcc_Bm_User_Authentication_Failure_Msg</t>
+          <t>Sfcc_Bm_Site_Name</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -798,7 +794,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>//div[@id="content"]/div/a[@title='Return to L…</t>
+          <t>//span[@title='Currys PC World UK']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -809,12 +805,12 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>xpath is broken</t>
+          <t>xpath Looks fine</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Some parenthesis/brackets/quotes missing</t>
+          <t>No suggestion</t>
         </is>
       </c>
     </row>
@@ -824,7 +820,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Storefront_Accept_Cookies_Button</t>
+          <t>Sfcc_Bm_User_Authentication_Failure_Msg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -834,20 +830,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>//button[@id='onetrust-accept-btn-handler' and…</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>onetrust-accept-btn-handler</t>
-        </is>
-      </c>
+          <t>//div[@id="content"]/div/a[@title='Return to L…</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Accept All Cookies</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -868,7 +856,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Storefront_HomePage_SearchBox</t>
+          <t>Storefront_Accept_Cookies_Button</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -878,23 +866,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>//div[contains(@class,'ipad-search')]//child::...</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>//button[@id='onetrust-accept-btn-handler' and…</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>onetrust-accept-btn-handler</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Accept All Cookies</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>xpath Looks fine</t>
+          <t>xpath is broken</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>No suggestion</t>
+          <t>Some parenthesis/brackets/quotes missing</t>
         </is>
       </c>
     </row>
@@ -904,7 +900,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Storefront_HomePage_Search_Submit_Button</t>
+          <t>Storefront_HomePage_SearchBox</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -914,15 +910,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>//button[@type='submit']</t>
+          <t>//div[contains(@class,'ipad-search')]//child::...</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>search-button</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
@@ -944,7 +936,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Storefront_Monthly_Price_PLP_List</t>
+          <t>Storefront_HomePage_Search_Submit_Button</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -954,23 +946,27 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(//div[@class='monthly-amount' and contains(te...</t>
+          <t>//button[@type='submit']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>search-button</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>xpath is broken</t>
+          <t>xpath Looks fine</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Some parenthesis/brackets/quotes missing</t>
+          <t>No suggestion</t>
         </is>
       </c>
     </row>
@@ -980,7 +976,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Storefront_Monthly_Price_PDP</t>
+          <t>Storefront_Monthly_Price_PLP_List</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -990,7 +986,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>//input[contains(@id,"monthly-payment")]</t>
+          <t>(//div[@class='monthly-amount' and contains(te...</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -1001,12 +997,12 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>xpath Looks fine</t>
+          <t>xpath is broken</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>No suggestion</t>
+          <t>Some parenthesis/brackets/quotes missing</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1012,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Storefront_Monthly_Price_PDP_Asterisk</t>
+          <t>Storefront_Monthly_Price_PDP</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1026,7 +1022,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>//span[@class="monthly-payment-value" and cont...</t>
+          <t>//input[contains(@id,"monthly-payment")]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1037,12 +1033,12 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>xpath is broken</t>
+          <t>xpath Looks fine</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Some parenthesis/brackets/quotes missing</t>
+          <t>No suggestion</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1048,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Storefront_Monthly_Price_PDP_Representative_Ex...</t>
+          <t>Storefront_Monthly_Price_PDP_Asterisk</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1062,7 +1058,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>//div[@class="permonth-amount-details" and con...</t>
+          <t>//span[@class="monthly-payment-value" and cont...</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1134,7 +1130,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>//h2[@id="dealsOffersLabel" and contains(text(...</t>
+          <t>//div[@class="permonth-amount-details" and con...</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1196,7 +1192,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Storefront_PDP_Customise_Credit_Plan_Button</t>
+          <t>Storefront_Monthly_Price_PDP_Representative_Ex...</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1206,7 +1202,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>//span[contains(@class,'avm-title body-link') ...</t>
+          <t>//h2[@id="dealsOffersLabel" and contains(text(...</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1232,7 +1228,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Storefront_PDP_Customise_Credit_Plan_Fly_Out_c...</t>
+          <t>Storefront_PDP_Customise_Credit_Plan_Button</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1242,7 +1238,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>//h2[@id="creditPlanLabel" and contains(text()...</t>
+          <t>//span[contains(@class,'avm-title body-link') ...</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1268,7 +1264,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Storefront_PDP_FC_Eligible_Under_99_Message</t>
+          <t>Storefront_PDP_Customise_Credit_Plan_Fly_Out_c...</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1278,7 +1274,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>//span[@class='flexible-credit-min-order' and ...</t>
+          <t>//h2[@id="creditPlanLabel" and contains(text()...</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1304,7 +1300,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Storefront_PLP_Pagination_List</t>
+          <t>Storefront_PDP_FC_Eligible_Under_99_Message</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1314,7 +1310,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>//li[contains(@class,'page-item')]//child::a</t>
+          <t>//span[@class='flexible-credit-min-order' and ...</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -1325,12 +1321,12 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>xpath Looks fine</t>
+          <t>xpath is broken</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>No suggestion</t>
+          <t>Some parenthesis/brackets/quotes missing</t>
         </is>
       </c>
     </row>
@@ -1340,7 +1336,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Storefront_PDP_CreditEligible_Under_99_Text</t>
+          <t>Storefront_PLP_Pagination_List</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1350,7 +1346,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>//span[contains(text(),'Flexible credit on ord...</t>
+          <t>//li[contains(@class,'page-item')]//child::a</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1361,12 +1357,12 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>xpath is broken</t>
+          <t>xpath Looks fine</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Some parenthesis/brackets/quotes missing</t>
+          <t>No suggestion</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1372,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Storefront_PDP_Add_To_Cart_Button</t>
+          <t>Storefront_PDP_CreditEligible_Under_99_Text</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1386,7 +1382,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>(//button[contains(@class,'add-to-cart btn')])[2]</t>
+          <t>//span[contains(text(),'Flexible credit on ord...</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1397,12 +1393,12 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>xpath Looks fine</t>
+          <t>xpath is broken</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>No suggestion</t>
+          <t>Some parenthesis/brackets/quotes missing</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1408,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Storefront_PDP_Go_To_Basket_Flyout_Button</t>
+          <t>Storefront_PDP_Add_To_Cart_Button</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1422,7 +1418,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>//a[contains(@title,'Go to basket')]</t>
+          <t>(//button[contains(@class,'add-to-cart btn')])[2]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1448,7 +1444,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Storefront_Basket_Less_Than_99</t>
+          <t>Storefront_PDP_Go_To_Basket_Flyout_Button</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1458,7 +1454,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>(//span[contains(text(),'Flexible credit on or...</t>
+          <t>//a[contains(@title,'Go to basket')]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1469,12 +1465,12 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>xpath is broken</t>
+          <t>xpath Looks fine</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Some parenthesis/brackets/quotes missing</t>
+          <t>No suggestion</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1480,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Storefront_Basket_Page_Remove_Product_Button</t>
+          <t>Storefront_Basket_Less_Than_99</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1494,7 +1490,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>//a[contains(@class,'remove-product d-flex')]/...</t>
+          <t>(//span[contains(text(),'Flexible credit on or...</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -1505,12 +1501,12 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>xpath Looks fine</t>
+          <t>xpath is broken</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>No suggestion</t>
+          <t>Some parenthesis/brackets/quotes missing</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1516,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Storefront_Basket_Page_Remove_Product_CTA_Yes</t>
+          <t>Storefront_Basket_Page_Remove_Product_Button</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1530,7 +1526,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>//span[@class='cta-btn-text' and contains(text...</t>
+          <t>//a[contains(@class,'remove-product d-flex')]/...</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1541,12 +1537,12 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>xpath is broken</t>
+          <t>xpath Looks fine</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Some parenthesis/brackets/quotes missing</t>
+          <t>No suggestion</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1552,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Storefront_Basket_Page_FC_Radio_i_Button</t>
+          <t>Storefront_Basket_Page_Remove_Product_CTA_Yes</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1566,7 +1562,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>//label[contains(@class,'radio-label payment-t...</t>
+          <t>//span[@class='cta-btn-text' and contains(text...</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -1592,7 +1588,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Storefront_PDP_Monthly_Care_Plan_Select_Button</t>
+          <t>Storefront_Basket_Page_FC_Radio_i_Button</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1602,7 +1598,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>//div[contains(@class,'careplan-title') and te...</t>
+          <t>//label[contains(@class,'radio-label payment-t...</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -1628,7 +1624,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Storefront_PDP_Monthly_Care_Plan_Agree_Checkbox</t>
+          <t>Storefront_PDP_Monthly_Care_Plan_Select_Button</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1638,7 +1634,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>//label[contains(@class,'checkbox-label') and ...</t>
+          <t>//div[contains(@class,'careplan-title') and te...</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -1664,7 +1660,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Storefront_PDP_Monthly_Care_Plan_Continue_Button</t>
+          <t>Storefront_PDP_Monthly_Care_Plan_Agree_Checkbox</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1674,7 +1670,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>//button[contains(@class,'btn care-service-nex...</t>
+          <t>//label[contains(@class,'checkbox-label') and ...</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -1700,7 +1696,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Storefront_PDP_Contiue_Without_Care_Plan_Button</t>
+          <t>Storefront_PDP_Monthly_Care_Plan_Continue_Button</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1710,7 +1706,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>//a[contains(text(),'Continue without Care &amp; R...</t>
+          <t>//button[contains(@class,'btn care-service-nex...</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1736,7 +1732,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Storefront_PDP_Check_Stock_Location_Textfield</t>
+          <t>Storefront_PDP_Contiue_Without_Care_Plan_Button</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1746,7 +1742,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>//input[@id='stockSearch' and contains(@aria-l...</t>
+          <t>//a[contains(text(),'Continue without Care &amp; R...</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -1772,7 +1768,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Storefront_PDP_Check_Stock_Location_Textfield_...</t>
+          <t>Storefront_PDP_Check_Stock_Location_Textfield</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1782,7 +1778,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>//span[contains(@class,'storeStock-search-icon')]</t>
+          <t>//input[@id='stockSearch' and contains(@aria-l...</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -1793,12 +1789,12 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>xpath Looks fine</t>
+          <t>xpath is broken</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>No suggestion</t>
+          <t>Some parenthesis/brackets/quotes missing</t>
         </is>
       </c>
     </row>
@@ -1808,7 +1804,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Storefront_PDP_Collection_Button</t>
+          <t>Storefront_PDP_Check_Stock_Location_Textfield_...</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1818,7 +1814,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>//div[contains(@class,'collection-available')]</t>
+          <t>//span[contains(@class,'storeStock-search-icon')]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -1844,7 +1840,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Storefront_PDP_First_Store_Radio_Button</t>
+          <t>Storefront_PDP_Collection_Button</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1854,7 +1850,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>(//input[contains(@class,'custom-radio-btn sto...</t>
+          <t>//div[contains(@class,'collection-available')]</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -1865,12 +1861,12 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>xpath is broken</t>
+          <t>xpath Looks fine</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Some parenthesis/brackets/quotes missing</t>
+          <t>No suggestion</t>
         </is>
       </c>
     </row>
@@ -1880,7 +1876,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Storefront_Basket_Page_Got_it_Button</t>
+          <t>Storefront_PDP_First_Store_Radio_Button</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1890,7 +1886,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>(//u[contains(text(),'Got it')])[2]</t>
+          <t>(//input[contains(@class,'custom-radio-btn sto...</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -1901,12 +1897,12 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>xpath Looks fine</t>
+          <t>xpath is broken</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>No suggestion</t>
+          <t>Some parenthesis/brackets/quotes missing</t>
         </is>
       </c>
     </row>
@@ -1916,7 +1912,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Storefront_Basket_Page_Collection_Message</t>
+          <t>Storefront_Basket_Page_Got_it_Button</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1926,7 +1922,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>(//div[@class='ineligible-error' and contains(...</t>
+          <t>(//u[contains(text(),'Got it')])[2]</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -1937,12 +1933,12 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>xpath is broken</t>
+          <t>xpath Looks fine</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Some parenthesis/brackets/quotes missing</t>
+          <t>No suggestion</t>
         </is>
       </c>
     </row>
@@ -1952,7 +1948,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Storefront_Basket_Page_Monthly_Care_Message</t>
+          <t>Storefront_Basket_Page_Collection_Message</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1988,7 +1984,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Storefront_tests</t>
+          <t>Storefront_Basket_Page_Monthly_Care_Message</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1998,7 +1994,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>//*(id='Atul')</t>
+          <t>(//div[@class='ineligible-error' and contains(...</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2009,12 +2005,12 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>xpath Looks fine</t>
+          <t>xpath is broken</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Please try to avoid xpath with //*.</t>
+          <t>Some parenthesis/brackets/quotes missing</t>
         </is>
       </c>
     </row>
@@ -2034,7 +2030,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>//*(id='test')</t>
+          <t>//*(id='Atul')</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -2070,7 +2066,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>//*(id='test1')</t>
+          <t>//*(id='test')</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -2106,7 +2102,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>(//*(id='Atul')</t>
+          <t>//*(id='test1')</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -2117,7 +2113,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>xpath is broken</t>
+          <t>xpath Looks fine</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -2130,9 +2126,21 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Storefront_tests</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>(//*(id='Atul')</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
@@ -2146,7 +2154,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Some parenthesis/brackets/quotes missing</t>
+          <t>Please try to avoid xpath with //*.</t>
         </is>
       </c>
     </row>
@@ -2154,21 +2162,9 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Testing</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>xpath</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>/html/header/div/a</t>
-        </is>
-      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
@@ -2177,12 +2173,12 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>xpath Looks fine</t>
+          <t>No xpath found</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Looks like an absolute xpath. Please try to avoid xpath starting with single slashes</t>
+          <t>No suggestions</t>
         </is>
       </c>
     </row>
@@ -2190,9 +2186,21 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>/html/header/div/a</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
@@ -2201,12 +2209,12 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>xpath is broken</t>
+          <t>xpath Looks fine</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Some parenthesis/brackets/quotes missing</t>
+          <t>Looks like an absolute xpath. Please try to avoid xpath starting with single slashes</t>
         </is>
       </c>
     </row>
@@ -2214,21 +2222,9 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Testing</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>xpath</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>/html/header//*[@id='testing"]</t>
-        </is>
-      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2237,10 +2233,46 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>xpath is broken</t>
+          <t>No xpath found</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
+        <is>
+          <t>No suggestions</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>/html/header//*[@id='testing"]</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>xpath is broken</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
         <is>
           <t>Looks like an absolute xpath. Please try to avoid xpath starting with single slashes or *.</t>
         </is>

--- a/Reviewed files/Xpath_Reviewed.xlsx
+++ b/Reviewed files/Xpath_Reviewed.xlsx
@@ -758,7 +758,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>//select[@id="SelectedSiteID"]</t>
+          <t>//select[@id="SelectedSiteID"]//*</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -774,7 +774,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>No suggestion</t>
+          <t>Please try to avoid xpath with //*.</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>//span[@title='Currys PC World UK']</t>
+          <t>//span[@title='Currys PC World UK']"(//*</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -805,12 +805,12 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>xpath Looks fine</t>
+          <t>xpath is broken</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>No suggestion</t>
+          <t>Some parenthesis/brackets/quotes missing, Please try to avoid xpath with //*.</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>//button[@type='submit']</t>
+          <t>//button[@type='submit']//('</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -961,12 +961,12 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>xpath Looks fine</t>
+          <t>xpath is broken</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>No suggestion</t>
+          <t>Some parenthesis/brackets/quotes missing</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Please try to avoid xpath with //*.</t>
+          <t>Some parenthesis/brackets/quotes missing, Please try to avoid xpath with //*.</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Looks like an absolute xpath. Please try to avoid xpath starting with single slashes or *.</t>
+          <t>Some parenthesis/brackets/quotes missing, Looks like an absolute xpath. Please try to avoid xpath starting with single slashes or //*.</t>
         </is>
       </c>
     </row>
